--- a/Material/Links_notes/Algorithms/excel_docs/Code_Basics_algos.xlsx
+++ b/Material/Links_notes/Algorithms/excel_docs/Code_Basics_algos.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Tech-Stack\Technology\Deep-Learning\Material\Links_notes\Algorithms\excel_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Tech-Stack\Technology\Deep-Learning\pytorch-basic\Material\Links_notes\Algorithms\excel_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0500B75-98FF-4628-8839-16FBC513CE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962FA1C-3C5A-490B-9932-421B4072CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FD2596A-0FC0-4025-A444-F6C91468D355}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6FD2596A-0FC0-4025-A444-F6C91468D355}"/>
   </bookViews>
   <sheets>
     <sheet name="LR_single_Var" sheetId="1" r:id="rId1"/>
+    <sheet name="LR_multi_variable" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>y = 135.79x + 180616</t>
   </si>
@@ -40,6 +42,42 @@
   </si>
   <si>
     <t>slope</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Hours studied</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Attendence</t>
   </si>
 </sst>
 </file>
@@ -198,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -211,30 +249,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -355,6 +382,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -369,12 +412,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -693,8 +738,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1261,8 +1307,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1435,6 +1482,2801 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_single_Var!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 4,52,196.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LR_single_Var!$D$22:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$E$22:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>533670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>587986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>696618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>805250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>859566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>968198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1022514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1076830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6480-480B-8652-2AD197296DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1516325920"/>
+        <c:axId val="48670016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1516325920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48670016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48670016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516325920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$D$36:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>452196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$E$36:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>452196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4052196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7652196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11252196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14852196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18452196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22052196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25652196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29252196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32852196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36452196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$F$36:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>552196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4152196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7752196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11352196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14952196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18552196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22152196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25752196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29352196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32952196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36552196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$G$36:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>652196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>752196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4352196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7952196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11552196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15152196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18752196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22352196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25952196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29552196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33152196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36752196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$H$36:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>752196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1052196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4652196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8252196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11852196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15452196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19052196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22652196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26252196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29852196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33452196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37052196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$I$36:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>852196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1452196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5052196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8652196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12252196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15852196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19452196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23052196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26652196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30252196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33852196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37452196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$J$36:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>952196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1952196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5552196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9152196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12752196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16352196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19952196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23552196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27152196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30752196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34352196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37952196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$K$36:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1052196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2552196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6152196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9752196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13352196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16952196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20552196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24152196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27752196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31352196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34952196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38552196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$L$36:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1152196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3252196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6852196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10452196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14052196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17652196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21252196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24852196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28452196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32052196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35652196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39252196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_single_Var!$M$36:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1252196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4052196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7652196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11252196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14852196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18452196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22052196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25652196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29252196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32852196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36452196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40052196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D659-4595-8BD4-2516D9D01560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128849440"/>
+        <c:axId val="48683936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128849440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48683936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48683936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128849440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bedroom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A887-4964-8CFE-6B97B0943E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A887-4964-8CFE-6B97B0943E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255374512"/>
+        <c:axId val="48689216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255374512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48689216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48689216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255374512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF7-4FA5-AF4A-E5E7A586338B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bedroom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BF7-4FA5-AF4A-E5E7A586338B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BF7-4FA5-AF4A-E5E7A586338B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LR_multi_variable!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LR_multi_variable!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>565000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>760000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BF7-4FA5-AF4A-E5E7A586338B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="43383312"/>
+        <c:axId val="48693536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43383312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48693536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48693536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43383312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F3D-481F-A5E5-9287C0B367A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F3D-481F-A5E5-9287C0B367A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F3D-481F-A5E5-9287C0B367A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attendence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F3D-481F-A5E5-9287C0B367A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="41134320"/>
+        <c:axId val="121039456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41134320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121039456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121039456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41134320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1515,6 +4357,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -2586,6 +5628,2599 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2639,7 +8274,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>432435</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2665,18 +8300,221 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA79D4A8-BF91-68B0-3CA8-FFCEAF3CA5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0C0C5E-6D68-8BBA-4CE7-35786A0F8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D15E87-0BE3-E984-8401-D4078142CE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCEC2659-86C2-20FF-A20F-E1ACF03BE814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADB3FA3-E44D-7AF4-776B-6B07C40AA6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30A00EA5-A87A-40A2-8451-0245757A50E8}" name="Table1" displayName="Table1" ref="B2:D7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30A00EA5-A87A-40A2-8451-0245757A50E8}" name="Table1" displayName="Table1" ref="B2:D7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B2:D7" xr:uid="{30A00EA5-A87A-40A2-8451-0245757A50E8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{844D596A-1B62-44AB-9E8D-CAEC5C051E59}" name="area(x)" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{71934F42-C084-4C4A-A6B7-E77CFBF0A9C9}" name="price(y)" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{E699BE39-5DD6-4D00-A3F9-6B7373132398}" name="y = 135.79x + 180616" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{844D596A-1B62-44AB-9E8D-CAEC5C051E59}" name="area(x)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{71934F42-C084-4C4A-A6B7-E77CFBF0A9C9}" name="price(y)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{E699BE39-5DD6-4D00-A3F9-6B7373132398}" name="y = 135.79x + 180616" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[area(x)]]*$C$11 + $C$10</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{958F1F80-5702-41AF-9342-FA2FF0A20EA6}" name="Table2" displayName="Table2" ref="C3:F8" totalsRowShown="0">
+  <autoFilter ref="C3:F8" xr:uid="{958F1F80-5702-41AF-9342-FA2FF0A20EA6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6C75392A-261B-4CB5-9291-AD3BD31B9362}" name="Marks"/>
+    <tableColumn id="2" xr3:uid="{1EF60540-6BAD-4F3D-8B12-43E8C07132E4}" name="Hours studied"/>
+    <tableColumn id="3" xr3:uid="{7988E4D0-B350-498C-9EC6-97F50F548DDA}" name="IQ"/>
+    <tableColumn id="4" xr3:uid="{BAB90044-3AEF-4820-BDB9-451221778035}" name="Attendence"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2979,18 +8817,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AD746-ABC3-433C-962F-A346A2330DCB}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -3083,6 +8921,766 @@
       </c>
       <c r="C11" s="2">
         <v>135.79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C11</f>
+        <v>135.79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C10</f>
+        <v>180616</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C15*C14 + C16</f>
+        <v>452196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13">
+        <f>C19</f>
+        <v>452196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="13">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="dataTable" ref="E22:E32" dt2D="0" dtr="0" r1="C14"/>
+        <v>533670</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="13">
+        <f>D22+400</f>
+        <v>3000</v>
+      </c>
+      <c r="E23" s="13">
+        <v>587986</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <f t="shared" ref="D24:D32" si="0">D23+400</f>
+        <v>3400</v>
+      </c>
+      <c r="E24" s="13">
+        <v>642302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="E25" s="13">
+        <v>696618</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="E26" s="13">
+        <v>750934</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+      <c r="E27" s="13">
+        <v>805250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E28" s="13">
+        <v>859566</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E29" s="13">
+        <v>913882</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="E30" s="13">
+        <v>968198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1022514</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1076830</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <f>C19</f>
+        <v>452196</v>
+      </c>
+      <c r="E36" s="14">
+        <f>C19</f>
+        <v>452196</v>
+      </c>
+      <c r="F36" s="14">
+        <f>E36+100000</f>
+        <v>552196</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" ref="G36:M36" si="1">F36+100000</f>
+        <v>652196</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="1"/>
+        <v>752196</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="1"/>
+        <v>852196</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="1"/>
+        <v>952196</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="1"/>
+        <v>1052196</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="1"/>
+        <v>1152196</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="1"/>
+        <v>1252196</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>2600</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="dataTable" ref="E37:M47" dt2D="1" dtr="1" r1="C19" r2="C14" ca="1"/>
+        <v>452196</v>
+      </c>
+      <c r="F37" s="1">
+        <v>552196</v>
+      </c>
+      <c r="G37" s="1">
+        <v>752196</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1052196</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1452196</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1952196</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2552196</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3252196</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4052196</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <f>D37+400</f>
+        <v>3000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4052196</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4152196</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4352196</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4652196</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5052196</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5552196</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6152196</v>
+      </c>
+      <c r="L38" s="1">
+        <v>6852196</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7652196</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <f t="shared" ref="D39:D47" si="2">D38+400</f>
+        <v>3400</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7652196</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7752196</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7952196</v>
+      </c>
+      <c r="H39" s="1">
+        <v>8252196</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8652196</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9152196</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9752196</v>
+      </c>
+      <c r="L39" s="1">
+        <v>10452196</v>
+      </c>
+      <c r="M39" s="1">
+        <v>11252196</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="7">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11252196</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11352196</v>
+      </c>
+      <c r="G40" s="1">
+        <v>11552196</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11852196</v>
+      </c>
+      <c r="I40" s="1">
+        <v>12252196</v>
+      </c>
+      <c r="J40" s="1">
+        <v>12752196</v>
+      </c>
+      <c r="K40" s="1">
+        <v>13352196</v>
+      </c>
+      <c r="L40" s="1">
+        <v>14052196</v>
+      </c>
+      <c r="M40" s="1">
+        <v>14852196</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="7">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="E41" s="1">
+        <v>14852196</v>
+      </c>
+      <c r="F41" s="1">
+        <v>14952196</v>
+      </c>
+      <c r="G41" s="1">
+        <v>15152196</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15452196</v>
+      </c>
+      <c r="I41" s="1">
+        <v>15852196</v>
+      </c>
+      <c r="J41" s="1">
+        <v>16352196</v>
+      </c>
+      <c r="K41" s="1">
+        <v>16952196</v>
+      </c>
+      <c r="L41" s="1">
+        <v>17652196</v>
+      </c>
+      <c r="M41" s="1">
+        <v>18452196</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+      <c r="E42" s="1">
+        <v>18452196</v>
+      </c>
+      <c r="F42" s="1">
+        <v>18552196</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18752196</v>
+      </c>
+      <c r="H42" s="1">
+        <v>19052196</v>
+      </c>
+      <c r="I42" s="1">
+        <v>19452196</v>
+      </c>
+      <c r="J42" s="1">
+        <v>19952196</v>
+      </c>
+      <c r="K42" s="1">
+        <v>20552196</v>
+      </c>
+      <c r="L42" s="1">
+        <v>21252196</v>
+      </c>
+      <c r="M42" s="1">
+        <v>22052196</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="7">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>22052196</v>
+      </c>
+      <c r="F43" s="1">
+        <v>22152196</v>
+      </c>
+      <c r="G43" s="1">
+        <v>22352196</v>
+      </c>
+      <c r="H43" s="1">
+        <v>22652196</v>
+      </c>
+      <c r="I43" s="1">
+        <v>23052196</v>
+      </c>
+      <c r="J43" s="1">
+        <v>23552196</v>
+      </c>
+      <c r="K43" s="1">
+        <v>24152196</v>
+      </c>
+      <c r="L43" s="1">
+        <v>24852196</v>
+      </c>
+      <c r="M43" s="1">
+        <v>25652196</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="7">
+        <f t="shared" si="2"/>
+        <v>5400</v>
+      </c>
+      <c r="E44" s="1">
+        <v>25652196</v>
+      </c>
+      <c r="F44" s="1">
+        <v>25752196</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25952196</v>
+      </c>
+      <c r="H44" s="1">
+        <v>26252196</v>
+      </c>
+      <c r="I44" s="1">
+        <v>26652196</v>
+      </c>
+      <c r="J44" s="1">
+        <v>27152196</v>
+      </c>
+      <c r="K44" s="1">
+        <v>27752196</v>
+      </c>
+      <c r="L44" s="1">
+        <v>28452196</v>
+      </c>
+      <c r="M44" s="1">
+        <v>29252196</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="7">
+        <f t="shared" si="2"/>
+        <v>5800</v>
+      </c>
+      <c r="E45" s="1">
+        <v>29252196</v>
+      </c>
+      <c r="F45" s="1">
+        <v>29352196</v>
+      </c>
+      <c r="G45" s="1">
+        <v>29552196</v>
+      </c>
+      <c r="H45" s="1">
+        <v>29852196</v>
+      </c>
+      <c r="I45" s="1">
+        <v>30252196</v>
+      </c>
+      <c r="J45" s="1">
+        <v>30752196</v>
+      </c>
+      <c r="K45" s="1">
+        <v>31352196</v>
+      </c>
+      <c r="L45" s="1">
+        <v>32052196</v>
+      </c>
+      <c r="M45" s="1">
+        <v>32852196</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="E46" s="1">
+        <v>32852196</v>
+      </c>
+      <c r="F46" s="1">
+        <v>32952196</v>
+      </c>
+      <c r="G46" s="1">
+        <v>33152196</v>
+      </c>
+      <c r="H46" s="1">
+        <v>33452196</v>
+      </c>
+      <c r="I46" s="1">
+        <v>33852196</v>
+      </c>
+      <c r="J46" s="1">
+        <v>34352196</v>
+      </c>
+      <c r="K46" s="1">
+        <v>34952196</v>
+      </c>
+      <c r="L46" s="1">
+        <v>35652196</v>
+      </c>
+      <c r="M46" s="1">
+        <v>36452196</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D47" s="7">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="E47" s="1">
+        <v>36452196</v>
+      </c>
+      <c r="F47" s="1">
+        <v>36552196</v>
+      </c>
+      <c r="G47" s="1">
+        <v>36752196</v>
+      </c>
+      <c r="H47" s="1">
+        <v>37052196</v>
+      </c>
+      <c r="I47" s="1">
+        <v>37452196</v>
+      </c>
+      <c r="J47" s="1">
+        <v>37952196</v>
+      </c>
+      <c r="K47" s="1">
+        <v>38552196</v>
+      </c>
+      <c r="L47" s="1">
+        <v>39252196</v>
+      </c>
+      <c r="M47" s="1">
+        <v>40052196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA927FC-BE6D-4506-B5B2-241DF51B36D2}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2600</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>565000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3200</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3600</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>595000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>760000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB58039C-DA6B-4419-AECE-907EBE21D497}">
+  <dimension ref="C3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>110</v>
+      </c>
+      <c r="F5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
